--- a/production.xlsx
+++ b/production.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABE39B5-CD7C-4DB1-BB91-D5E584CC13B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EBCE1E-1A0D-416C-80C9-66FA7C2188E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Production" sheetId="1" r:id="rId1"/>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
@@ -548,7 +548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -569,7 +569,7 @@
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>168</v>
+        <v>841</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -590,7 +590,7 @@
         <v>7.6166999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -611,7 +611,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G36" ca="1" si="0">RANDBETWEEN(100,1000)</f>
-        <v>265</v>
+        <v>770</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -632,7 +632,7 @@
         <v>17.577000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -653,7 +653,7 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>619</v>
+        <v>459</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -674,7 +674,7 @@
         <v>29.880900000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -695,7 +695,7 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>551</v>
+        <v>184</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -716,7 +716,7 @@
         <v>24.412500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -737,7 +737,7 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>209</v>
+        <v>746</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
@@ -758,7 +758,7 @@
         <v>5.0778000000000008</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -779,7 +779,7 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>760</v>
+        <v>420</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -800,7 +800,7 @@
         <v>14.0616</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -821,7 +821,7 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>343</v>
+        <v>912</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -842,7 +842,7 @@
         <v>3.9060000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -863,7 +863,7 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
+        <v>314</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -884,7 +884,7 @@
         <v>3.9060000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -896,7 +896,7 @@
       </c>
       <c r="D10">
         <f t="shared" ref="D10" ca="1" si="1">RANDBETWEEN(1,10)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -906,7 +906,7 @@
       </c>
       <c r="G10">
         <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>377</v>
+        <v>763</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -945,7 +945,7 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>571</v>
+        <v>760</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -984,7 +984,7 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>978</v>
+        <v>685</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>548</v>
+        <v>618</v>
       </c>
       <c r="H13" t="s">
         <v>17</v>
@@ -1044,7 +1044,7 @@
         <v>7.6166999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>402</v>
+        <v>183</v>
       </c>
       <c r="H14" t="s">
         <v>12</v>
@@ -1086,7 +1086,7 @@
         <v>12.500999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>893</v>
+        <v>552</v>
       </c>
       <c r="H15" t="s">
         <v>13</v>
@@ -1128,7 +1128,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>425</v>
+        <v>257</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -1170,7 +1170,7 @@
         <v>9.4250000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="0"/>
-        <v>815</v>
+        <v>649</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -1212,7 +1212,7 @@
         <v>1.8408</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>426</v>
+        <v>834</v>
       </c>
       <c r="H18" t="s">
         <v>16</v>
@@ -1254,7 +1254,7 @@
         <v>11.7432</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="0"/>
-        <v>337</v>
+        <v>495</v>
       </c>
       <c r="H19" t="s">
         <v>12</v>
@@ -1293,7 +1293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="0"/>
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
@@ -1335,7 +1335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="0"/>
-        <v>570</v>
+        <v>445</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -1377,7 +1377,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="0"/>
-        <v>446</v>
+        <v>518</v>
       </c>
       <c r="H22" t="s">
         <v>12</v>
@@ -1419,7 +1419,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="0"/>
-        <v>535</v>
+        <v>880</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -1461,7 +1461,7 @@
         <v>2.448</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="0"/>
-        <v>194</v>
+        <v>282</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
@@ -1503,7 +1503,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="0"/>
-        <v>383</v>
+        <v>475</v>
       </c>
       <c r="H25" t="s">
         <v>15</v>
@@ -1545,7 +1545,7 @@
         <v>0.57200000000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="0"/>
-        <v>151</v>
+        <v>897</v>
       </c>
       <c r="H26" t="s">
         <v>16</v>
@@ -1587,7 +1587,7 @@
         <v>1.8720000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="0"/>
-        <v>748</v>
+        <v>521</v>
       </c>
       <c r="H27" t="s">
         <v>17</v>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="0"/>
-        <v>910</v>
+        <v>319</v>
       </c>
       <c r="H28" t="s">
         <v>12</v>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="0"/>
-        <v>791</v>
+        <v>840</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="0"/>
-        <v>344</v>
+        <v>563</v>
       </c>
       <c r="H30" t="s">
         <v>12</v>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="0"/>
-        <v>278</v>
+        <v>439</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="0"/>
-        <v>701</v>
+        <v>944</v>
       </c>
       <c r="H32" t="s">
         <v>14</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="0"/>
-        <v>269</v>
+        <v>425</v>
       </c>
       <c r="H33" t="s">
         <v>15</v>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="0"/>
-        <v>338</v>
+        <v>717</v>
       </c>
       <c r="H34" t="s">
         <v>16</v>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="0"/>
-        <v>231</v>
+        <v>812</v>
       </c>
       <c r="H35" t="s">
         <v>17</v>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="0"/>
-        <v>455</v>
+        <v>616</v>
       </c>
       <c r="H36" t="s">
         <v>12</v>
@@ -2008,7 +2008,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N36" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N36" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="SJIL"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2018,7 +2024,7 @@
   <sheetPr codeName="Sheet2" filterMode="1"/>
   <dimension ref="A1:L911"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>

--- a/production.xlsx
+++ b/production.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EBCE1E-1A0D-416C-80C9-66FA7C2188E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E835EB60-42E3-49CE-B958-B81A97007B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Production" sheetId="1" r:id="rId1"/>
@@ -481,12 +481,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,6 +502,7 @@
     <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -548,7 +549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -569,7 +570,7 @@
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>841</v>
+        <v>523</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -590,7 +591,7 @@
         <v>7.6166999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -611,7 +612,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G36" ca="1" si="0">RANDBETWEEN(100,1000)</f>
-        <v>770</v>
+        <v>305</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -632,7 +633,7 @@
         <v>17.577000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -653,7 +654,7 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>459</v>
+        <v>725</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -674,7 +675,7 @@
         <v>29.880900000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -695,7 +696,7 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>331</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -716,7 +717,7 @@
         <v>24.412500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -737,7 +738,7 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>746</v>
+        <v>187</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
@@ -758,7 +759,7 @@
         <v>5.0778000000000008</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -779,7 +780,7 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>420</v>
+        <v>109</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -800,7 +801,7 @@
         <v>14.0616</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -821,7 +822,7 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -842,7 +843,7 @@
         <v>3.9060000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -863,7 +864,7 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>314</v>
+        <v>489</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -884,7 +885,7 @@
         <v>3.9060000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -896,7 +897,7 @@
       </c>
       <c r="D10">
         <f t="shared" ref="D10" ca="1" si="1">RANDBETWEEN(1,10)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -906,7 +907,7 @@
       </c>
       <c r="G10">
         <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>763</v>
+        <v>740</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -924,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -945,7 +946,7 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>760</v>
+        <v>874</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -963,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -984,7 +985,7 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>685</v>
+        <v>841</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
@@ -1002,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1023,7 +1024,7 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>618</v>
+        <v>513</v>
       </c>
       <c r="H13" t="s">
         <v>17</v>
@@ -1044,7 +1045,7 @@
         <v>7.6166999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1065,7 +1066,7 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>257</v>
       </c>
       <c r="H14" t="s">
         <v>12</v>
@@ -1086,7 +1087,7 @@
         <v>12.500999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1107,7 +1108,7 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>552</v>
+        <v>396</v>
       </c>
       <c r="H15" t="s">
         <v>13</v>
@@ -1128,7 +1129,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1149,7 +1150,7 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>257</v>
+        <v>554</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -1170,7 +1171,7 @@
         <v>9.4250000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1191,7 +1192,7 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="0"/>
-        <v>649</v>
+        <v>130</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -1212,7 +1213,7 @@
         <v>1.8408</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1233,7 +1234,7 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>834</v>
+        <v>433</v>
       </c>
       <c r="H18" t="s">
         <v>16</v>
@@ -1254,7 +1255,7 @@
         <v>11.7432</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1275,7 +1276,7 @@
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="0"/>
-        <v>495</v>
+        <v>865</v>
       </c>
       <c r="H19" t="s">
         <v>12</v>
@@ -1293,7 +1294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1314,7 +1315,7 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="0"/>
-        <v>742</v>
+        <v>655</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
@@ -1335,7 +1336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="0"/>
-        <v>445</v>
+        <v>297</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -1377,7 +1378,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1398,7 +1399,7 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="0"/>
-        <v>518</v>
+        <v>159</v>
       </c>
       <c r="H22" t="s">
         <v>12</v>
@@ -1419,7 +1420,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1440,7 +1441,7 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="0"/>
-        <v>880</v>
+        <v>658</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -1461,7 +1462,7 @@
         <v>2.448</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1482,7 +1483,7 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="0"/>
-        <v>282</v>
+        <v>787</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
@@ -1503,7 +1504,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1524,7 +1525,7 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="0"/>
-        <v>475</v>
+        <v>667</v>
       </c>
       <c r="H25" t="s">
         <v>15</v>
@@ -1545,7 +1546,7 @@
         <v>0.57200000000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="0"/>
-        <v>897</v>
+        <v>688</v>
       </c>
       <c r="H26" t="s">
         <v>16</v>
@@ -1587,7 +1588,7 @@
         <v>1.8720000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1608,7 +1609,7 @@
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="0"/>
-        <v>521</v>
+        <v>439</v>
       </c>
       <c r="H27" t="s">
         <v>17</v>
@@ -1650,7 +1651,7 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="0"/>
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H28" t="s">
         <v>12</v>
@@ -1692,7 +1693,7 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="0"/>
-        <v>840</v>
+        <v>341</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
@@ -1734,7 +1735,7 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="0"/>
-        <v>563</v>
+        <v>825</v>
       </c>
       <c r="H30" t="s">
         <v>12</v>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="0"/>
-        <v>439</v>
+        <v>843</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -1818,7 +1819,7 @@
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="0"/>
-        <v>944</v>
+        <v>579</v>
       </c>
       <c r="H32" t="s">
         <v>14</v>
@@ -1860,7 +1861,7 @@
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="0"/>
-        <v>425</v>
+        <v>336</v>
       </c>
       <c r="H33" t="s">
         <v>15</v>
@@ -1902,7 +1903,7 @@
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="0"/>
-        <v>717</v>
+        <v>384</v>
       </c>
       <c r="H34" t="s">
         <v>16</v>
@@ -1944,7 +1945,7 @@
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="0"/>
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="H35" t="s">
         <v>17</v>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="0"/>
-        <v>616</v>
+        <v>522</v>
       </c>
       <c r="H36" t="s">
         <v>12</v>
@@ -2008,13 +2009,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N36" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="SJIL"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:N36" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
